--- a/results/Preliminaries-Czech-republic.xlsx
+++ b/results/Preliminaries-Czech-republic.xlsx
@@ -60,64 +60,64 @@
     <t>2021</t>
   </si>
   <si>
-    <t>HSD</t>
-  </si>
-  <si>
-    <t>KDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB </t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>ODA</t>
-  </si>
-  <si>
-    <t>ODS</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>ČSS</t>
-  </si>
-  <si>
-    <t>KSČ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ </t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VV </t>
-  </si>
-  <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>Usv</t>
-  </si>
-  <si>
-    <t>Pir</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>PaS</t>
-  </si>
-  <si>
-    <t>S -</t>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)</t>
+  </si>
+  <si>
+    <t>US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)</t>
+  </si>
+  <si>
+    <t>Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>PaS - Pirates and Mayors (Piráti a Starostové, PaS)</t>
+  </si>
+  <si>
+    <t>S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)</t>
   </si>
   <si>
     <t>Key</t>
@@ -156,2695 +156,2695 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>HSD+KDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSD+LB </t>
-  </si>
-  <si>
-    <t>HSD+LSU</t>
-  </si>
-  <si>
-    <t>HSD+ODA</t>
-  </si>
-  <si>
-    <t>HSD+ODS</t>
-  </si>
-  <si>
-    <t>HSD+SPR</t>
-  </si>
-  <si>
-    <t>HSD+ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+LB </t>
-  </si>
-  <si>
-    <t>KDU+LSU</t>
-  </si>
-  <si>
-    <t>KDU+ODA</t>
-  </si>
-  <si>
-    <t>KDU+ODS</t>
-  </si>
-  <si>
-    <t>KDU+SPR</t>
-  </si>
-  <si>
-    <t>KDU+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU</t>
-  </si>
-  <si>
-    <t>LB +ODA</t>
-  </si>
-  <si>
-    <t>LB +ODS</t>
-  </si>
-  <si>
-    <t>LB +SPR</t>
-  </si>
-  <si>
-    <t>LB +ČSS</t>
-  </si>
-  <si>
-    <t>LSU+ODA</t>
-  </si>
-  <si>
-    <t>LSU+ODS</t>
-  </si>
-  <si>
-    <t>LSU+SPR</t>
-  </si>
-  <si>
-    <t>LSU+ČSS</t>
-  </si>
-  <si>
-    <t>ODA+ODS</t>
-  </si>
-  <si>
-    <t>ODA+SPR</t>
-  </si>
-  <si>
-    <t>ODA+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+SPR</t>
-  </si>
-  <si>
-    <t>ODS+ČSS</t>
-  </si>
-  <si>
-    <t>SPR+ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSD+KDU+LB </t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODS</t>
-  </si>
-  <si>
-    <t>HSD+LB +SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODS</t>
-  </si>
-  <si>
-    <t>KDU+LB +SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>KDU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>KDU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODS</t>
-  </si>
-  <si>
-    <t>LB +LSU+SPR</t>
-  </si>
-  <si>
-    <t>LB +LSU+ČSS</t>
-  </si>
-  <si>
-    <t>LB +ODA+ODS</t>
-  </si>
-  <si>
-    <t>LB +ODA+SPR</t>
-  </si>
-  <si>
-    <t>LB +ODA+ČSS</t>
-  </si>
-  <si>
-    <t>LB +ODS+SPR</t>
-  </si>
-  <si>
-    <t>LB +ODS+ČSS</t>
-  </si>
-  <si>
-    <t>LB +SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA+ODS</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>LB +ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>LB +ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA+ODS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>LB +LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+LB +LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+LB +LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>HSD+KDU+LB +LSU+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ</t>
-  </si>
-  <si>
-    <t>KSČ+ODA</t>
-  </si>
-  <si>
-    <t>KSČ+ODS</t>
-  </si>
-  <si>
-    <t>KSČ+SPR</t>
-  </si>
-  <si>
-    <t>KSČ+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPR</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODA+ODS</t>
-  </si>
-  <si>
-    <t>KSČ+ODA+SPR</t>
-  </si>
-  <si>
-    <t>KSČ+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA+ODS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA+SPR</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KSČ+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA+ODS+SPR</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODA+ODS+SPR+ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+US </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+US </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODS+US </t>
-  </si>
-  <si>
-    <t>US +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+KSČ+US </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+ODS+US </t>
-  </si>
-  <si>
-    <t>KDU+US +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+ODS+US </t>
-  </si>
-  <si>
-    <t>KSČ+US +ČSS</t>
-  </si>
-  <si>
-    <t>ODS+US +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+KSČ+ODS+US </t>
-  </si>
-  <si>
-    <t>KDU+KSČ+US +ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+US +ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+US +ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+US +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+SZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+SZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODS+SZ </t>
-  </si>
-  <si>
-    <t>SZ +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+KSČ+SZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+ODS+SZ </t>
-  </si>
-  <si>
-    <t>KDU+SZ +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+ODS+SZ </t>
-  </si>
-  <si>
-    <t>KSČ+SZ +ČSS</t>
-  </si>
-  <si>
-    <t>ODS+SZ +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDU+KSČ+ODS+SZ </t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SZ +ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SZ +ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SZ +ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SZ +ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+VV </t>
-  </si>
-  <si>
-    <t>ODS+TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODS+VV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP+VV </t>
-  </si>
-  <si>
-    <t>TOP+ČSS</t>
-  </si>
-  <si>
-    <t>VV +ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+ODS+VV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+TOP+VV </t>
-  </si>
-  <si>
-    <t>KSČ+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+VV +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODS+TOP+VV </t>
-  </si>
-  <si>
-    <t>ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+VV +ČSS</t>
-  </si>
-  <si>
-    <t>TOP+VV +ČSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČ+ODS+TOP+VV </t>
-  </si>
-  <si>
-    <t>KSČ+ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+VV +ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+TOP+VV +ČSS</t>
-  </si>
-  <si>
-    <t>ODS+TOP+VV +ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+TOP+VV +ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU</t>
-  </si>
-  <si>
-    <t>ANO+KSČ</t>
-  </si>
-  <si>
-    <t>ANO+ODS</t>
-  </si>
-  <si>
-    <t>ANO+TOP</t>
-  </si>
-  <si>
-    <t>ANO+Usv</t>
-  </si>
-  <si>
-    <t>ANO+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+TOP</t>
-  </si>
-  <si>
-    <t>KDU+Usv</t>
-  </si>
-  <si>
-    <t>KSČ+Usv</t>
-  </si>
-  <si>
-    <t>ODS+Usv</t>
-  </si>
-  <si>
-    <t>TOP+Usv</t>
-  </si>
-  <si>
-    <t>Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Usv</t>
-  </si>
-  <si>
-    <t>ANO+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Usv</t>
-  </si>
-  <si>
-    <t>KDU+ODS+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Usv</t>
-  </si>
-  <si>
-    <t>KDU+TOP+Usv</t>
-  </si>
-  <si>
-    <t>KDU+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Usv</t>
-  </si>
-  <si>
-    <t>KSČ+TOP+Usv</t>
-  </si>
-  <si>
-    <t>KSČ+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Usv</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+TOP+Usv</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>KDU+ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+TOP+Usv</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+TOP+Usv+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir</t>
-  </si>
-  <si>
-    <t>ANO+SPD</t>
-  </si>
-  <si>
-    <t>ANO+STA</t>
-  </si>
-  <si>
-    <t>KDU+Pir</t>
-  </si>
-  <si>
-    <t>KDU+SPD</t>
-  </si>
-  <si>
-    <t>KDU+STA</t>
-  </si>
-  <si>
-    <t>KSČ+Pir</t>
-  </si>
-  <si>
-    <t>KSČ+SPD</t>
-  </si>
-  <si>
-    <t>KSČ+STA</t>
-  </si>
-  <si>
-    <t>ODS+Pir</t>
-  </si>
-  <si>
-    <t>ODS+SPD</t>
-  </si>
-  <si>
-    <t>ODS+STA</t>
-  </si>
-  <si>
-    <t>Pir+SPD</t>
-  </si>
-  <si>
-    <t>Pir+STA</t>
-  </si>
-  <si>
-    <t>Pir+TOP</t>
-  </si>
-  <si>
-    <t>Pir+ČSS</t>
-  </si>
-  <si>
-    <t>SPD+STA</t>
-  </si>
-  <si>
-    <t>SPD+TOP</t>
-  </si>
-  <si>
-    <t>SPD+ČSS</t>
-  </si>
-  <si>
-    <t>STA+TOP</t>
-  </si>
-  <si>
-    <t>STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+STA</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD</t>
-  </si>
-  <si>
-    <t>ANO+ODS+STA</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+STA</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD</t>
-  </si>
-  <si>
-    <t>KDU+ODS+STA</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD</t>
-  </si>
-  <si>
-    <t>KDU+Pir+STA</t>
-  </si>
-  <si>
-    <t>KDU+Pir+TOP</t>
-  </si>
-  <si>
-    <t>KDU+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+STA</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+STA</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+SPD+STA</t>
-  </si>
-  <si>
-    <t>KSČ+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+STA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+STA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD+STA</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KSČ+ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD+STA+TOP</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD+STA+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KSČ+ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>KDU+KSČ+ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+KDU+KSČ+ODS+Pir+SPD+STA+TOP+ČSS</t>
-  </si>
-  <si>
-    <t>ANO+PaS</t>
-  </si>
-  <si>
-    <t>ANO+S -</t>
-  </si>
-  <si>
-    <t>PaS+S -</t>
-  </si>
-  <si>
-    <t>PaS+SPD</t>
-  </si>
-  <si>
-    <t>S -+SPD</t>
-  </si>
-  <si>
-    <t>ANO+PaS+S -</t>
-  </si>
-  <si>
-    <t>ANO+PaS+SPD</t>
-  </si>
-  <si>
-    <t>ANO+S -+SPD</t>
-  </si>
-  <si>
-    <t>PaS+S -+SPD</t>
-  </si>
-  <si>
-    <t>ANO+PaS+S -+SPD</t>
-  </si>
-  <si>
-    <t>('KSČ+ČSS', 'KDU+ODS+SZ ')</t>
-  </si>
-  <si>
-    <t>('KDU+ODS+SZ ', 'KSČ+ČSS')</t>
-  </si>
-  <si>
-    <t>('ANO+Pir', 'KDU+KSČ+ODS+SPD+STA+TOP+ČSS')</t>
-  </si>
-  <si>
-    <t>('ANO+SPD', 'KDU+KSČ+ODS+Pir+STA+TOP+ČSS')</t>
-  </si>
-  <si>
-    <t>('ANO+KSČ+TOP', 'KDU+ODS+Pir+SPD+STA+ČSS')</t>
-  </si>
-  <si>
-    <t>('ANO+TOP+ČSS', 'KDU+KSČ+ODS+Pir+SPD+STA')</t>
-  </si>
-  <si>
-    <t>('KDU+KSČ+ODS+Pir+SPD+STA', 'ANO+TOP+ČSS')</t>
-  </si>
-  <si>
-    <t>('KDU+ODS+Pir+SPD+STA+ČSS', 'ANO+KSČ+TOP')</t>
-  </si>
-  <si>
-    <t>('KDU+KSČ+ODS+Pir+STA+TOP+ČSS', 'ANO+SPD')</t>
-  </si>
-  <si>
-    <t>('KDU+KSČ+ODS+SPD+STA+TOP+ČSS', 'ANO+Pir')</t>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>HSD-SMS - Movement for Self-Governing Democracy-Society for Moravia and Silesia (Hnutí za samosprávnou demokracii-Společnost pro Moravu a Slezsko, HSD-SMS)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+LB - Left Bloc Coalition (Koalice Levý blok, LB)+LSU - Liberal Social Union (Liberálně sociální unie, LSU)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODA - Civic Democratic Alliance (Občanská demokratická aliance, ODA)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPR-RSČ - Association for the Republic-Republican Party of Czechoslovakia (Sdružení pro republiku-Republikánská strana Československa, SPR-RSČ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+US - Freedom Union (Unie svobodyUnie svobody-Demokratická unie, US)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+VV - Public Affairs (Věci veřejné, VV)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+Usvit - Dawn of Direct Democracy of Tomio Okamura (Úsvit Přímé Demokracie Tomia Okamury, Usvit)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+PaS - Pirates and Mayors (Piráti a Starostové, PaS)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)</t>
+  </si>
+  <si>
+    <t>PaS - Pirates and Mayors (Piráti a Starostové, PaS)+S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)</t>
+  </si>
+  <si>
+    <t>PaS - Pirates and Mayors (Piráti a Starostové, PaS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+PaS - Pirates and Mayors (Piráti a Starostové, PaS)+S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+PaS - Pirates and Mayors (Piráti a Starostové, PaS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>PaS - Pirates and Mayors (Piráti a Starostové, PaS)+S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+PaS - Pirates and Mayors (Piráti a Starostové, PaS)+S - Together-ODS, KDU-ČSL, TOP 09 (Spolu-ODS, KDU-ČSL, TOP 09, S)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)</t>
+  </si>
+  <si>
+    <t>('KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)', "KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)")</t>
+  </si>
+  <si>
+    <t>("KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SZ - Party of Greens (Strana zelených, SZ)", 'KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)')</t>
+  </si>
+  <si>
+    <t>('ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)', "KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)")</t>
+  </si>
+  <si>
+    <t>('ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)', "KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)")</t>
+  </si>
+  <si>
+    <t>('ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)', "KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)")</t>
+  </si>
+  <si>
+    <t>('ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)', "KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)")</t>
+  </si>
+  <si>
+    <t>("KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)", 'ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)')</t>
+  </si>
+  <si>
+    <t>("KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)", 'ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)')</t>
+  </si>
+  <si>
+    <t>("KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)", 'ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)')</t>
+  </si>
+  <si>
+    <t>("KDU-ČSL - Christian and Democratic Union-Czech People's Party (Křesťanská a demokratická unie-Československá strana lidová, KDU-ČSL)+KSČM - Communist Party of Bohemia and Moravia (Komunistická strana Čech a Moravy, KSČM)+ODS - Civic Democratic Party (Občanská demokratická strana, ODS)+SPD - Freedom and Direct Democracy (Svoboda a přímá demokracie, SPD)+STAN - Mayors and Independents (Starostové a Nezávislí, STAN)+TOP09 - TOP09 (Tradition, Responsibility, Prosperity 09) (TOP09 (Tradice Odpovědnost Prosperita 09), TOP09)+ČSSD - Czech Social Democratic Party (Česká strana sociálně demokratická, ČSSD), known until  as Czechoslovak Social Democracy (CSSD, Československá sociální demokracie)", 'ANO 2011 - Akce nespokojených občanů 2011 (Action of Dissatisfied Citizens 2011, ANO 2011)+Piráti - Czech Pirate Party (Česká pirátská strana, Piráti)')</t>
   </si>
 </sst>
 </file>
